--- a/Analyzed/try2/data_2015.xlsx
+++ b/Analyzed/try2/data_2015.xlsx
@@ -541,13 +541,13 @@
         <v>2202.148</v>
       </c>
       <c r="L2">
-        <v>83</v>
+        <v>2905</v>
       </c>
       <c r="M2">
         <v>67.9012522365647</v>
       </c>
       <c r="N2">
-        <v>2.439999999999999</v>
+        <v>70.75999999999995</v>
       </c>
       <c r="O2">
         <v>1128.59</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2">
         <v>6</v>
@@ -632,13 +632,13 @@
         <v>1537.331</v>
       </c>
       <c r="L3">
-        <v>90.7</v>
+        <v>3174.5</v>
       </c>
       <c r="M3">
         <v>63.31864632430084</v>
       </c>
       <c r="N3">
-        <v>33.41</v>
+        <v>968.8899999999999</v>
       </c>
       <c r="O3">
         <v>833.4400000000001</v>
@@ -671,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1770.757</v>
       </c>
       <c r="L4">
-        <v>86.30000000000001</v>
+        <v>3020.5</v>
       </c>
       <c r="M4">
         <v>55.90959170301495</v>
       </c>
       <c r="N4">
-        <v>-9.67</v>
+        <v>-280.4299999999999</v>
       </c>
       <c r="O4">
         <v>1052.43</v>
@@ -762,10 +762,10 @@
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>2021.112</v>
       </c>
       <c r="L5">
-        <v>90.90000000000001</v>
+        <v>3181.5</v>
       </c>
       <c r="M5">
         <v>63.03198687549288</v>
       </c>
       <c r="N5">
-        <v>38.05</v>
+        <v>1103.45</v>
       </c>
       <c r="O5">
         <v>1057.92</v>
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -905,13 +905,13 @@
         <v>2029.284</v>
       </c>
       <c r="L6">
-        <v>68.3</v>
+        <v>2390.5</v>
       </c>
       <c r="M6">
         <v>62.83398552057295</v>
       </c>
       <c r="N6">
-        <v>71.06999999999999</v>
+        <v>2061.03</v>
       </c>
       <c r="O6">
         <v>1020.26</v>
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -996,13 +996,13 @@
         <v>1510.011</v>
       </c>
       <c r="L7">
-        <v>70.3</v>
+        <v>2460.5</v>
       </c>
       <c r="M7">
         <v>83.02629996027494</v>
       </c>
       <c r="N7">
-        <v>14.22000000000001</v>
+        <v>412.3800000000001</v>
       </c>
       <c r="O7">
         <v>1352.04</v>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>1147.507</v>
       </c>
       <c r="L8">
-        <v>64.5</v>
+        <v>2257.5</v>
       </c>
       <c r="M8">
         <v>73.09179404156981</v>
       </c>
       <c r="N8">
-        <v>55.92000000000001</v>
+        <v>1621.68</v>
       </c>
       <c r="O8">
         <v>1114.78</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>779.7099999999999</v>
       </c>
       <c r="L9">
-        <v>74.2</v>
+        <v>2597</v>
       </c>
       <c r="M9">
         <v>63.19464527529657</v>
       </c>
       <c r="N9">
-        <v>30.03</v>
+        <v>870.8699999999999</v>
       </c>
       <c r="O9">
         <v>1138.36</v>
@@ -1217,10 +1217,10 @@
         <v>7</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>4</v>
@@ -1269,13 +1269,13 @@
         <v>2048.818</v>
       </c>
       <c r="L10">
-        <v>64.40000000000001</v>
+        <v>2254</v>
       </c>
       <c r="M10">
         <v>77.47189922657287</v>
       </c>
       <c r="N10">
-        <v>46.65000000000001</v>
+        <v>1352.85</v>
       </c>
       <c r="O10">
         <v>896.9400000000001</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>1733.243</v>
       </c>
       <c r="L11">
-        <v>67.5</v>
+        <v>2362.5</v>
       </c>
       <c r="M11">
         <v>75.10190255690367</v>
       </c>
       <c r="N11">
-        <v>31.37</v>
+        <v>909.7299999999999</v>
       </c>
       <c r="O11">
         <v>1123.7</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
